--- a/biology/Botanique/Sceau-de-Salomon_multiflore/Sceau-de-Salomon_multiflore.xlsx
+++ b/biology/Botanique/Sceau-de-Salomon_multiflore/Sceau-de-Salomon_multiflore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polygonatum multiflorum
 Le Sceau-de-Salomon multiflore (Polygonatum multiflorum) est une espèce de plantes herbacées vivace, rhizomateuse, de la famille des Asparagacées. La Classification de Cronquist la classait parmi les Convallariacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se caractérise par sa tige ronde, ses fleurs en tube, blanches, rétrécies en leur milieu, à la pointe verte, en petites grappes pour les plus basses. Les fruits sont des baies noires.
 </t>
@@ -543,10 +557,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sceau de Salomon multiflore pousse dans les sous-bois d'Europe, formant parfois des colonies assez denses.
-Une espèce de champignons assez rare, la Pézize en radis (Stromatinia rapulum), parasite les rhizomes de ce Sceau de Salomon[1]. Chez les insectes, la larve de la Tenthrède Phymatocera aterrima, qui ressemble à une chenille, se nourrit de ses feuilles[2].
+Une espèce de champignons assez rare, la Pézize en radis (Stromatinia rapulum), parasite les rhizomes de ce Sceau de Salomon. Chez les insectes, la larve de la Tenthrède Phymatocera aterrima, qui ressemble à une chenille, se nourrit de ses feuilles.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimie de ces plantes est mal connue : la présence de saponosides est avérée, mais elles ne  contiennent pas d'hétérosides cardiotoniques contrairement à ce que l'on croyait. Elles contiennent également des raphides d'oxalate de calcium.
 La littérature signale des cas d'intoxications, avec parfois plus de 10 baies, ne se traduisant que par des troubles digestifs. Les rhizomes et les fruits furent utilisés autrefois comme vomitifs. Il est donc plus sage de considérer cette plante comme potentiellement légèrement toxique.
@@ -617,10 +635,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Noms français
-Ce taxon porte en français les noms vulgarisés et normalisés Sceau de Salomon commun[3],[4], Sceau-de-Salomon multiflore[3],[5],[4],[6], Polygonate multiflore[5],[4],[6], Muguet de serpent[4] et Muguet multiflore[6] ainsi que le nom vernaculaire Genouillet[4],[6].
-Synonymie
-Polygonatum multiflorum a pour synonymes[3] :
+          <t>Noms français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vulgarisés et normalisés Sceau de Salomon commun Sceau-de-Salomon multiflore Polygonate multiflore Muguet de serpent et Muguet multiflore ainsi que le nom vernaculaire Genouillet,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sceau-de-Salomon_multiflore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sceau-de-Salomon_multiflore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polygonatum multiflorum a pour synonymes :
 Convallaria ambigua Schrank
 Convallaria bracteata E.Thomas ex Gaudin, 1828
 Convallaria broteroi Guss.
